--- a/data/pca/factorExposure/factorExposure_2009-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-06.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01631524177982104</v>
+        <v>-0.01587185129591346</v>
       </c>
       <c r="C2">
-        <v>0.002062984825525916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001508182240355285</v>
+      </c>
+      <c r="D2">
+        <v>-0.008277709445823355</v>
+      </c>
+      <c r="E2">
+        <v>-0.02019790284310042</v>
+      </c>
+      <c r="F2">
+        <v>0.004388907990734115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08173310540571015</v>
+        <v>-0.08529333964055959</v>
       </c>
       <c r="C4">
-        <v>0.01966414528553474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01578767144736656</v>
+      </c>
+      <c r="D4">
+        <v>-0.08690997210389562</v>
+      </c>
+      <c r="E4">
+        <v>0.05195052397220429</v>
+      </c>
+      <c r="F4">
+        <v>-0.0115342677618905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.00158570198777221</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001038622873352028</v>
+      </c>
+      <c r="D5">
+        <v>-0.001296075767453095</v>
+      </c>
+      <c r="E5">
+        <v>0.0008790470750199996</v>
+      </c>
+      <c r="F5">
+        <v>0.003364680741877914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.163593893254571</v>
+        <v>-0.1684581445618965</v>
       </c>
       <c r="C6">
-        <v>0.04019083581619182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03738236188357816</v>
+      </c>
+      <c r="D6">
+        <v>0.009083369374371987</v>
+      </c>
+      <c r="E6">
+        <v>0.0586680530859023</v>
+      </c>
+      <c r="F6">
+        <v>-0.004063278786703644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05408561312959181</v>
+        <v>-0.05879700727295534</v>
       </c>
       <c r="C7">
-        <v>0.001497260453240786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.001225940555862345</v>
+      </c>
+      <c r="D7">
+        <v>-0.05502013227969876</v>
+      </c>
+      <c r="E7">
+        <v>0.03453607260668858</v>
+      </c>
+      <c r="F7">
+        <v>-0.05329789666243603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0579127480397339</v>
+        <v>-0.05403149272227149</v>
       </c>
       <c r="C8">
-        <v>-0.009212235167543598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.010962538711751</v>
+      </c>
+      <c r="D8">
+        <v>-0.03583920422692132</v>
+      </c>
+      <c r="E8">
+        <v>-0.02425403400942136</v>
+      </c>
+      <c r="F8">
+        <v>0.02080961761967257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06261180784228029</v>
+        <v>-0.06640903101860966</v>
       </c>
       <c r="C9">
-        <v>0.01496841981606298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0110776962889449</v>
+      </c>
+      <c r="D9">
+        <v>-0.09252641277590092</v>
+      </c>
+      <c r="E9">
+        <v>0.07036983618745293</v>
+      </c>
+      <c r="F9">
+        <v>-0.01678925861011178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09937547313444656</v>
+        <v>-0.09474836709812623</v>
       </c>
       <c r="C10">
-        <v>0.02673310748620911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02711726601018265</v>
+      </c>
+      <c r="D10">
+        <v>0.1500637596942235</v>
+      </c>
+      <c r="E10">
+        <v>-0.09271204478500497</v>
+      </c>
+      <c r="F10">
+        <v>0.002665062519344572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08258624760488655</v>
+        <v>-0.08061351840810164</v>
       </c>
       <c r="C11">
-        <v>0.01658563230955408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01191447128629605</v>
+      </c>
+      <c r="D11">
+        <v>-0.1324602853216233</v>
+      </c>
+      <c r="E11">
+        <v>0.03471738122536523</v>
+      </c>
+      <c r="F11">
+        <v>0.009971137024849209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08760583989025854</v>
+        <v>-0.08320599132283939</v>
       </c>
       <c r="C12">
-        <v>0.01443814961371494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.009135725820588639</v>
+      </c>
+      <c r="D12">
+        <v>-0.1505261980086783</v>
+      </c>
+      <c r="E12">
+        <v>0.0364798589627753</v>
+      </c>
+      <c r="F12">
+        <v>-0.002455209515969697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0421105674268036</v>
+        <v>-0.04217904741151951</v>
       </c>
       <c r="C13">
-        <v>0.007666925708612332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003700617896113134</v>
+      </c>
+      <c r="D13">
+        <v>-0.06362802392890672</v>
+      </c>
+      <c r="E13">
+        <v>0.00790784886955309</v>
+      </c>
+      <c r="F13">
+        <v>-0.01426615303955008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02026492049028332</v>
+        <v>-0.02278948656175746</v>
       </c>
       <c r="C14">
-        <v>0.01515877897939621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01402339872794237</v>
+      </c>
+      <c r="D14">
+        <v>-0.04405263117559984</v>
+      </c>
+      <c r="E14">
+        <v>0.03089303774836591</v>
+      </c>
+      <c r="F14">
+        <v>0.00259520920579774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0301402622561287</v>
+        <v>-0.03243067432353231</v>
       </c>
       <c r="C15">
-        <v>0.0077288460597312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006259048513967194</v>
+      </c>
+      <c r="D15">
+        <v>-0.05282850499327299</v>
+      </c>
+      <c r="E15">
+        <v>0.02619813149868262</v>
+      </c>
+      <c r="F15">
+        <v>-0.0126597897744158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06345042905377556</v>
+        <v>-0.0634015187096052</v>
       </c>
       <c r="C16">
-        <v>0.005027748227488618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0004783304018556099</v>
+      </c>
+      <c r="D16">
+        <v>-0.1428747383289834</v>
+      </c>
+      <c r="E16">
+        <v>0.04626857761349572</v>
+      </c>
+      <c r="F16">
+        <v>0.01676281180575529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.003481255416727425</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001342781555923583</v>
+      </c>
+      <c r="D17">
+        <v>-0.003114868663494045</v>
+      </c>
+      <c r="E17">
+        <v>-0.001040726374524956</v>
+      </c>
+      <c r="F17">
+        <v>0.007685830062526627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03311641492600486</v>
+        <v>-0.04809289501905527</v>
       </c>
       <c r="C18">
-        <v>0.0004600454177384584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009204289376936885</v>
+      </c>
+      <c r="D18">
+        <v>-0.03244286909985188</v>
+      </c>
+      <c r="E18">
+        <v>-0.0157692244615517</v>
+      </c>
+      <c r="F18">
+        <v>-0.001219893187535693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06105032979794562</v>
+        <v>-0.06019021524207936</v>
       </c>
       <c r="C20">
-        <v>0.005047575493724547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002244787441133007</v>
+      </c>
+      <c r="D20">
+        <v>-0.09573984920199111</v>
+      </c>
+      <c r="E20">
+        <v>0.0640217797420342</v>
+      </c>
+      <c r="F20">
+        <v>0.01276214165914846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0420745983125738</v>
+        <v>-0.04401717921174715</v>
       </c>
       <c r="C21">
-        <v>0.0110927123867294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008451414018407558</v>
+      </c>
+      <c r="D21">
+        <v>-0.05361597098843924</v>
+      </c>
+      <c r="E21">
+        <v>-0.01299621274453799</v>
+      </c>
+      <c r="F21">
+        <v>-0.004700689403755989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04662838505475453</v>
+        <v>-0.045086498079588</v>
       </c>
       <c r="C22">
-        <v>0.005477371952905303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.00293129148535123</v>
+      </c>
+      <c r="D22">
+        <v>-0.01945695402585603</v>
+      </c>
+      <c r="E22">
+        <v>-0.0447746709143896</v>
+      </c>
+      <c r="F22">
+        <v>0.1286023508258569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04663745905448834</v>
+        <v>-0.0450942424237168</v>
       </c>
       <c r="C23">
-        <v>0.005480040435706959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.002933694993794689</v>
+      </c>
+      <c r="D23">
+        <v>-0.01945106927321145</v>
+      </c>
+      <c r="E23">
+        <v>-0.044799602825956</v>
+      </c>
+      <c r="F23">
+        <v>0.1286411061918694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07025059059703487</v>
+        <v>-0.06959735724581041</v>
       </c>
       <c r="C24">
-        <v>0.005767363521334055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001596455716317214</v>
+      </c>
+      <c r="D24">
+        <v>-0.1332650810756952</v>
+      </c>
+      <c r="E24">
+        <v>0.04040195169622821</v>
+      </c>
+      <c r="F24">
+        <v>-0.001297275837118466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07692302939431048</v>
+        <v>-0.07492388541894396</v>
       </c>
       <c r="C25">
-        <v>0.008867329142970974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004734060743303118</v>
+      </c>
+      <c r="D25">
+        <v>-0.1228435842329541</v>
+      </c>
+      <c r="E25">
+        <v>0.02487333739268464</v>
+      </c>
+      <c r="F25">
+        <v>-0.01769984884049309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05689689450805192</v>
+        <v>-0.06104037994529973</v>
       </c>
       <c r="C26">
-        <v>0.01880699872578422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01616807385583331</v>
+      </c>
+      <c r="D26">
+        <v>-0.06608810464038692</v>
+      </c>
+      <c r="E26">
+        <v>0.003158420438294565</v>
+      </c>
+      <c r="F26">
+        <v>0.01041112009240536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1593943285629946</v>
+        <v>-0.1634220215669819</v>
       </c>
       <c r="C28">
-        <v>0.03338008735978876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03511055558742153</v>
+      </c>
+      <c r="D28">
+        <v>0.2426708513485597</v>
+      </c>
+      <c r="E28">
+        <v>-0.0279496761406312</v>
+      </c>
+      <c r="F28">
+        <v>-0.04670991362829523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02537632386946274</v>
+        <v>-0.02767248065096174</v>
       </c>
       <c r="C29">
-        <v>0.009978932260072165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.00941408037741932</v>
+      </c>
+      <c r="D29">
+        <v>-0.04143174549492336</v>
+      </c>
+      <c r="E29">
+        <v>-0.005394554702849557</v>
+      </c>
+      <c r="F29">
+        <v>0.02194799103432908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04456252484334114</v>
+        <v>-0.04557266079811181</v>
       </c>
       <c r="C30">
-        <v>0.004518100486001801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001322866946568983</v>
+      </c>
+      <c r="D30">
+        <v>-0.08599464787242959</v>
+      </c>
+      <c r="E30">
+        <v>0.09379075739711244</v>
+      </c>
+      <c r="F30">
+        <v>-0.06354024256040716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05254211265753028</v>
+        <v>-0.05234168525935127</v>
       </c>
       <c r="C31">
-        <v>0.01999223436103964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01759832694206952</v>
+      </c>
+      <c r="D31">
+        <v>-0.03770736879053525</v>
+      </c>
+      <c r="E31">
+        <v>0.01064334907282793</v>
+      </c>
+      <c r="F31">
+        <v>0.03244207758915068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04387511615356161</v>
+        <v>-0.04892157366750403</v>
       </c>
       <c r="C32">
-        <v>0.001353950700952053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001263861023319458</v>
+      </c>
+      <c r="D32">
+        <v>-0.03935733793452008</v>
+      </c>
+      <c r="E32">
+        <v>0.01252267278027331</v>
+      </c>
+      <c r="F32">
+        <v>0.02440783006015017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0815212553151</v>
+        <v>-0.0845380024283819</v>
       </c>
       <c r="C33">
-        <v>0.01315849374336018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008170669287379431</v>
+      </c>
+      <c r="D33">
+        <v>-0.1170960515399311</v>
+      </c>
+      <c r="E33">
+        <v>0.04836380259529823</v>
+      </c>
+      <c r="F33">
+        <v>0.01372798554281623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05893632233876068</v>
+        <v>-0.0591861405419805</v>
       </c>
       <c r="C34">
-        <v>0.01410051040251652</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009632521902769963</v>
+      </c>
+      <c r="D34">
+        <v>-0.1237962862163076</v>
+      </c>
+      <c r="E34">
+        <v>0.04294245107177769</v>
+      </c>
+      <c r="F34">
+        <v>-0.02255471413132955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02714256096828596</v>
+        <v>-0.02817539789854686</v>
       </c>
       <c r="C35">
-        <v>0.005383259568674338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004520314530232075</v>
+      </c>
+      <c r="D35">
+        <v>-0.01688352915409</v>
+      </c>
+      <c r="E35">
+        <v>0.01033437706227987</v>
+      </c>
+      <c r="F35">
+        <v>0.01954077302100759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0240763627672041</v>
+        <v>-0.02813847023403528</v>
       </c>
       <c r="C36">
-        <v>0.009021481234516611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007934047306833754</v>
+      </c>
+      <c r="D36">
+        <v>-0.05001161756950224</v>
+      </c>
+      <c r="E36">
+        <v>0.03831775752150546</v>
+      </c>
+      <c r="F36">
+        <v>0.01665753048243497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003523264849432207</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0007978623162479922</v>
+      </c>
+      <c r="D37">
+        <v>-0.004182601862137659</v>
+      </c>
+      <c r="E37">
+        <v>-0.001511629041594424</v>
+      </c>
+      <c r="F37">
+        <v>0.0002789261814556563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08895858425894362</v>
+        <v>-0.08305967679206254</v>
       </c>
       <c r="C39">
-        <v>0.01895555212309808</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.0138092905740704</v>
+      </c>
+      <c r="D39">
+        <v>-0.1553747488484199</v>
+      </c>
+      <c r="E39">
+        <v>0.02565328319976295</v>
+      </c>
+      <c r="F39">
+        <v>0.01185409858362878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0437961413162115</v>
+        <v>-0.04938357430881047</v>
       </c>
       <c r="C40">
-        <v>0.01265499351785862</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01070212171328822</v>
+      </c>
+      <c r="D40">
+        <v>-0.05460818351034385</v>
+      </c>
+      <c r="E40">
+        <v>-0.01599004550672372</v>
+      </c>
+      <c r="F40">
+        <v>-0.001132727345786332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02778028892859728</v>
+        <v>-0.02953358951718925</v>
       </c>
       <c r="C41">
-        <v>0.008890846061241539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008138177888972347</v>
+      </c>
+      <c r="D41">
+        <v>-0.02481314678235544</v>
+      </c>
+      <c r="E41">
+        <v>-0.005684475518750887</v>
+      </c>
+      <c r="F41">
+        <v>0.005952637147237473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04241254586900111</v>
+        <v>-0.04129755115215897</v>
       </c>
       <c r="C43">
-        <v>0.009972724872160098</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.008831515788626157</v>
+      </c>
+      <c r="D43">
+        <v>-0.03571605724266896</v>
+      </c>
+      <c r="E43">
+        <v>-0.004583342060620933</v>
+      </c>
+      <c r="F43">
+        <v>0.02565894807717642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05422846681604616</v>
+        <v>-0.06311724722147637</v>
       </c>
       <c r="C44">
-        <v>0.02041387461808973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01794025484929716</v>
+      </c>
+      <c r="D44">
+        <v>-0.08762477982851588</v>
+      </c>
+      <c r="E44">
+        <v>0.229347583911936</v>
+      </c>
+      <c r="F44">
+        <v>-0.06558985558270841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.00020951639892704</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>5.180017432602377e-05</v>
+      </c>
+      <c r="D45">
+        <v>2.427697289834495e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005521699486323266</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002947464776197457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02533684474263336</v>
+        <v>-0.02616912634570619</v>
       </c>
       <c r="C46">
-        <v>0.005475416791434328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004426765352062877</v>
+      </c>
+      <c r="D46">
+        <v>-0.0276214321411228</v>
+      </c>
+      <c r="E46">
+        <v>-0.003007841561842587</v>
+      </c>
+      <c r="F46">
+        <v>0.03334328308429504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05345606676947368</v>
+        <v>-0.05249093707313492</v>
       </c>
       <c r="C47">
-        <v>0.007674640476824772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005799142525603622</v>
+      </c>
+      <c r="D47">
+        <v>-0.02391614814539408</v>
+      </c>
+      <c r="E47">
+        <v>-0.01210777315496902</v>
+      </c>
+      <c r="F47">
+        <v>0.05614862723742815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04856008844163071</v>
+        <v>-0.05200333431711147</v>
       </c>
       <c r="C48">
-        <v>0.006410986456689006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.004001316461912244</v>
+      </c>
+      <c r="D48">
+        <v>-0.06456054435401221</v>
+      </c>
+      <c r="E48">
+        <v>0.008587198934281837</v>
+      </c>
+      <c r="F48">
+        <v>-0.01930055698856226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1940738370361486</v>
+        <v>-0.196970295893705</v>
       </c>
       <c r="C49">
-        <v>0.03081543977106187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02630430129898014</v>
+      </c>
+      <c r="D49">
+        <v>0.008541262591348634</v>
+      </c>
+      <c r="E49">
+        <v>0.04340627658317187</v>
+      </c>
+      <c r="F49">
+        <v>-0.03895631623916299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05002062592074597</v>
+        <v>-0.05233707932344559</v>
       </c>
       <c r="C50">
-        <v>0.01522865789787879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0135815271008008</v>
+      </c>
+      <c r="D50">
+        <v>-0.0344353034653767</v>
+      </c>
+      <c r="E50">
+        <v>0.02158711883813231</v>
+      </c>
+      <c r="F50">
+        <v>0.01997856985190138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1467609384042545</v>
+        <v>-0.1405873507144319</v>
       </c>
       <c r="C52">
-        <v>0.0262419623513132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0221690779689654</v>
+      </c>
+      <c r="D52">
+        <v>-0.04486929639884134</v>
+      </c>
+      <c r="E52">
+        <v>0.05913733636421056</v>
+      </c>
+      <c r="F52">
+        <v>0.02204960207517137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1776978429039886</v>
+        <v>-0.1693488385191609</v>
       </c>
       <c r="C53">
-        <v>0.03208927407455869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02819026648863497</v>
+      </c>
+      <c r="D53">
+        <v>-0.01955841811243076</v>
+      </c>
+      <c r="E53">
+        <v>0.1181417539366013</v>
+      </c>
+      <c r="F53">
+        <v>0.01022588193437154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01351991653310949</v>
+        <v>-0.01647433516916016</v>
       </c>
       <c r="C54">
-        <v>0.0116336503408214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01087494037387076</v>
+      </c>
+      <c r="D54">
+        <v>-0.03456182534427976</v>
+      </c>
+      <c r="E54">
+        <v>0.006275073495483168</v>
+      </c>
+      <c r="F54">
+        <v>0.01618675549921712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1207151515268229</v>
+        <v>-0.1177697167219425</v>
       </c>
       <c r="C55">
-        <v>0.02685750897488338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02383355446320135</v>
+      </c>
+      <c r="D55">
+        <v>-0.02200862079443916</v>
+      </c>
+      <c r="E55">
+        <v>0.07029545667321148</v>
+      </c>
+      <c r="F55">
+        <v>0.04647597333841634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1810921464698111</v>
+        <v>-0.174613426790984</v>
       </c>
       <c r="C56">
-        <v>0.0294041725598859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02604581794034483</v>
+      </c>
+      <c r="D56">
+        <v>-0.002734173940142191</v>
+      </c>
+      <c r="E56">
+        <v>0.07303422850665049</v>
+      </c>
+      <c r="F56">
+        <v>0.03433520074694568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04510337124758158</v>
+        <v>-0.04480887526151474</v>
       </c>
       <c r="C58">
-        <v>0.004222146748963351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0001497955756391668</v>
+      </c>
+      <c r="D58">
+        <v>-0.0978867982644364</v>
+      </c>
+      <c r="E58">
+        <v>-0.01552442487752472</v>
+      </c>
+      <c r="F58">
+        <v>0.03969902243232366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1774513458901063</v>
+        <v>-0.1816650062106141</v>
       </c>
       <c r="C59">
-        <v>0.03230286482989597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03364178372345223</v>
+      </c>
+      <c r="D59">
+        <v>0.2035088055957074</v>
+      </c>
+      <c r="E59">
+        <v>-0.08075521746732339</v>
+      </c>
+      <c r="F59">
+        <v>0.006363236639230929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2187137057675175</v>
+        <v>-0.2145574540990091</v>
       </c>
       <c r="C60">
-        <v>0.009753739681665175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.005105097647674126</v>
+      </c>
+      <c r="D60">
+        <v>-0.0220974276416522</v>
+      </c>
+      <c r="E60">
+        <v>-0.006232208678157525</v>
+      </c>
+      <c r="F60">
+        <v>-0.006893125572177612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06929556636066592</v>
+        <v>-0.06594226274858037</v>
       </c>
       <c r="C61">
-        <v>0.01494513115210692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01027545610416888</v>
+      </c>
+      <c r="D61">
+        <v>-0.1229055963320876</v>
+      </c>
+      <c r="E61">
+        <v>0.01348864207324547</v>
+      </c>
+      <c r="F61">
+        <v>0.01802571018863132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1701950389540684</v>
+        <v>-0.1662482650058076</v>
       </c>
       <c r="C62">
-        <v>0.03147426407297966</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02787495504672207</v>
+      </c>
+      <c r="D62">
+        <v>-0.01312359389082076</v>
+      </c>
+      <c r="E62">
+        <v>0.06782061049741342</v>
+      </c>
+      <c r="F62">
+        <v>0.04439310450725043</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04025903814573892</v>
+        <v>-0.04560894195089171</v>
       </c>
       <c r="C63">
-        <v>0.005333544123926</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.003184523079029167</v>
+      </c>
+      <c r="D63">
+        <v>-0.07283181510835254</v>
+      </c>
+      <c r="E63">
+        <v>0.01077963508797761</v>
+      </c>
+      <c r="F63">
+        <v>0.02425209296494998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127048733432031</v>
+        <v>-0.1104374791797017</v>
       </c>
       <c r="C64">
-        <v>0.02052257953824782</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0165658085234316</v>
+      </c>
+      <c r="D64">
+        <v>-0.05433644757859609</v>
+      </c>
+      <c r="E64">
+        <v>0.03124454041824751</v>
+      </c>
+      <c r="F64">
+        <v>0.002408797158303137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1524447188891209</v>
+        <v>-0.1573310479008675</v>
       </c>
       <c r="C65">
-        <v>0.04593872482556931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04375079077691241</v>
+      </c>
+      <c r="D65">
+        <v>0.03993201579971127</v>
+      </c>
+      <c r="E65">
+        <v>0.06205984626534606</v>
+      </c>
+      <c r="F65">
+        <v>0.008023542172197464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1090980376848335</v>
+        <v>-0.1018713543044997</v>
       </c>
       <c r="C66">
-        <v>0.01772738540146133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01190653259636414</v>
+      </c>
+      <c r="D66">
+        <v>-0.1419578848642267</v>
+      </c>
+      <c r="E66">
+        <v>0.02720995298610819</v>
+      </c>
+      <c r="F66">
+        <v>0.01064995743863468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05777862613585273</v>
+        <v>-0.04889777764401584</v>
       </c>
       <c r="C67">
-        <v>0.005957291835431882</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003561662566420964</v>
+      </c>
+      <c r="D67">
+        <v>-0.05797480018165411</v>
+      </c>
+      <c r="E67">
+        <v>-0.05556354658707358</v>
+      </c>
+      <c r="F67">
+        <v>0.06300551252293139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1283009358761442</v>
+        <v>-0.1334123052818337</v>
       </c>
       <c r="C68">
-        <v>0.04048094709442946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04373780664849055</v>
+      </c>
+      <c r="D68">
+        <v>0.2531467926510612</v>
+      </c>
+      <c r="E68">
+        <v>-0.03764421954615437</v>
+      </c>
+      <c r="F68">
+        <v>-0.08047014139734206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03919612501573577</v>
+        <v>-0.03887153937162877</v>
       </c>
       <c r="C69">
-        <v>0.003705972206651235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.00252534353500264</v>
+      </c>
+      <c r="D69">
+        <v>-0.01291944345821276</v>
+      </c>
+      <c r="E69">
+        <v>0.01460137776080464</v>
+      </c>
+      <c r="F69">
+        <v>0.05377018679188385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07174755775615589</v>
+        <v>-0.07258640932672798</v>
       </c>
       <c r="C70">
-        <v>-0.02142425141344522</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02324755099437063</v>
+      </c>
+      <c r="D70">
+        <v>-0.05159486810474277</v>
+      </c>
+      <c r="E70">
+        <v>-0.3414939108292654</v>
+      </c>
+      <c r="F70">
+        <v>0.1515788875067067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1493240488708034</v>
+        <v>-0.1557155208645979</v>
       </c>
       <c r="C71">
-        <v>0.04704076825118287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04975545704536528</v>
+      </c>
+      <c r="D71">
+        <v>0.26064402758912</v>
+      </c>
+      <c r="E71">
+        <v>-0.0441067744958001</v>
+      </c>
+      <c r="F71">
+        <v>-0.0889960465479902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1400154382110494</v>
+        <v>-0.146232118105933</v>
       </c>
       <c r="C72">
-        <v>0.03555569147620505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03369720090726045</v>
+      </c>
+      <c r="D72">
+        <v>-0.01302870558514704</v>
+      </c>
+      <c r="E72">
+        <v>0.06336929423795772</v>
+      </c>
+      <c r="F72">
+        <v>0.03702636094885125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1934356625705031</v>
+        <v>-0.1999877975651705</v>
       </c>
       <c r="C73">
-        <v>0.02402890809398778</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01813293268480773</v>
+      </c>
+      <c r="D73">
+        <v>-0.03140846038134294</v>
+      </c>
+      <c r="E73">
+        <v>0.06867440033744161</v>
+      </c>
+      <c r="F73">
+        <v>0.06026213325905803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.089243781822416</v>
+        <v>-0.08888392444790591</v>
       </c>
       <c r="C74">
-        <v>0.01790367048630373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01558694786365978</v>
+      </c>
+      <c r="D74">
+        <v>-0.02575765830597983</v>
+      </c>
+      <c r="E74">
+        <v>0.08143994990900928</v>
+      </c>
+      <c r="F74">
+        <v>0.0216188983127534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1264193110828421</v>
+        <v>-0.1193453005308875</v>
       </c>
       <c r="C75">
-        <v>0.03590675662708677</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03212809801000492</v>
+      </c>
+      <c r="D75">
+        <v>-0.03633346756308345</v>
+      </c>
+      <c r="E75">
+        <v>0.06360549318601134</v>
+      </c>
+      <c r="F75">
+        <v>0.06499191424853278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07483379017254782</v>
+        <v>-0.08881124171758197</v>
       </c>
       <c r="C77">
-        <v>0.01434249902676266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01142079469276213</v>
+      </c>
+      <c r="D77">
+        <v>-0.1221736831622269</v>
+      </c>
+      <c r="E77">
+        <v>0.05262429247579792</v>
+      </c>
+      <c r="F77">
+        <v>-0.01297203783934514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09626147882738105</v>
+        <v>-0.09848084988558935</v>
       </c>
       <c r="C78">
-        <v>0.04419353024781678</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04108140299002921</v>
+      </c>
+      <c r="D78">
+        <v>-0.1464820923007238</v>
+      </c>
+      <c r="E78">
+        <v>0.05952474479223411</v>
+      </c>
+      <c r="F78">
+        <v>-0.02648931923721026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1688890795679862</v>
+        <v>-0.1640316158226006</v>
       </c>
       <c r="C79">
-        <v>0.03482618130716231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.03063281915700541</v>
+      </c>
+      <c r="D79">
+        <v>-0.02782976466314538</v>
+      </c>
+      <c r="E79">
+        <v>0.0397049000329071</v>
+      </c>
+      <c r="F79">
+        <v>0.04105545096329006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07880440373130938</v>
+        <v>-0.0757140102230861</v>
       </c>
       <c r="C80">
-        <v>0.004788577439559551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0020637819884584</v>
+      </c>
+      <c r="D80">
+        <v>-0.05293308781190943</v>
+      </c>
+      <c r="E80">
+        <v>-0.02266878500572697</v>
+      </c>
+      <c r="F80">
+        <v>0.04859313523489469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1149287490733343</v>
+        <v>-0.1086166386281459</v>
       </c>
       <c r="C81">
-        <v>0.03736721094489821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03518359222040632</v>
+      </c>
+      <c r="D81">
+        <v>-0.008964478741361075</v>
+      </c>
+      <c r="E81">
+        <v>0.04858148231392908</v>
+      </c>
+      <c r="F81">
+        <v>0.06740819489858235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1607339487476301</v>
+        <v>-0.1592595688309443</v>
       </c>
       <c r="C82">
-        <v>0.03457670144595259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0309431706345231</v>
+      </c>
+      <c r="D82">
+        <v>-0.0004503538122471101</v>
+      </c>
+      <c r="E82">
+        <v>0.1029634525705722</v>
+      </c>
+      <c r="F82">
+        <v>0.006651748832029371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05637740270295715</v>
+        <v>-0.05183029882352585</v>
       </c>
       <c r="C83">
-        <v>0.006898989500699704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004563731788291451</v>
+      </c>
+      <c r="D83">
+        <v>-0.05479583867413781</v>
+      </c>
+      <c r="E83">
+        <v>-0.01761131751633828</v>
+      </c>
+      <c r="F83">
+        <v>0.01082803020294691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05161811286739482</v>
+        <v>-0.04894055834110972</v>
       </c>
       <c r="C84">
-        <v>0.0133245122048983</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01081184767694383</v>
+      </c>
+      <c r="D84">
+        <v>-0.07320968045260438</v>
+      </c>
+      <c r="E84">
+        <v>0.007669511947070476</v>
+      </c>
+      <c r="F84">
+        <v>0.005465650241020977</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402326749242877</v>
+        <v>-0.1347337934092291</v>
       </c>
       <c r="C85">
-        <v>0.03803866483227615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03451722891160022</v>
+      </c>
+      <c r="D85">
+        <v>-0.02239541755821206</v>
+      </c>
+      <c r="E85">
+        <v>0.08654031585767173</v>
+      </c>
+      <c r="F85">
+        <v>0.02518971837265846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08465954154039611</v>
+        <v>-0.08149574717605071</v>
       </c>
       <c r="C86">
-        <v>-0.002128700052388682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006567439390738615</v>
+      </c>
+      <c r="D86">
+        <v>-0.08977110521188889</v>
+      </c>
+      <c r="E86">
+        <v>-0.5823078203600003</v>
+      </c>
+      <c r="F86">
+        <v>0.5614084905479197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08622135163577573</v>
+        <v>-0.08739965927902525</v>
       </c>
       <c r="C87">
-        <v>0.02833563228748379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02385976933172101</v>
+      </c>
+      <c r="D87">
+        <v>-0.08539076833335858</v>
+      </c>
+      <c r="E87">
+        <v>0.01157853047405622</v>
+      </c>
+      <c r="F87">
+        <v>-0.1103225363296052</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06298148571665642</v>
+        <v>-0.06167155777793636</v>
       </c>
       <c r="C88">
-        <v>0.007604677573644208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.005017567770793563</v>
+      </c>
+      <c r="D88">
+        <v>-0.06669704160843681</v>
+      </c>
+      <c r="E88">
+        <v>0.0177783691182645</v>
+      </c>
+      <c r="F88">
+        <v>0.01496186183526702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1358740390797288</v>
+        <v>-0.1401078625775076</v>
       </c>
       <c r="C89">
-        <v>0.02022318431157267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02355303686104671</v>
+      </c>
+      <c r="D89">
+        <v>0.2277480039191601</v>
+      </c>
+      <c r="E89">
+        <v>-0.03924324847934074</v>
+      </c>
+      <c r="F89">
+        <v>-0.08738032837892257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1613835141908583</v>
+        <v>-0.1708506507886041</v>
       </c>
       <c r="C90">
-        <v>0.04356667100364918</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04699094765074478</v>
+      </c>
+      <c r="D90">
+        <v>0.253300317778337</v>
+      </c>
+      <c r="E90">
+        <v>-0.06788547469786621</v>
+      </c>
+      <c r="F90">
+        <v>-0.1194753891211264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1266244185321425</v>
+        <v>-0.1208000646078568</v>
       </c>
       <c r="C91">
-        <v>0.0286589676981847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02639639271030775</v>
+      </c>
+      <c r="D91">
+        <v>0.008699254806843484</v>
+      </c>
+      <c r="E91">
+        <v>0.03381632470116355</v>
+      </c>
+      <c r="F91">
+        <v>0.09653799821618962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1600217277047405</v>
+        <v>-0.1625003771221569</v>
       </c>
       <c r="C92">
-        <v>0.03418257305385718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03729301381123858</v>
+      </c>
+      <c r="D92">
+        <v>0.2858603071276136</v>
+      </c>
+      <c r="E92">
+        <v>-0.05244703559897366</v>
+      </c>
+      <c r="F92">
+        <v>-0.07647681550202322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1649096099828908</v>
+        <v>-0.1737506264189355</v>
       </c>
       <c r="C93">
-        <v>0.03973048576200832</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04199368600314261</v>
+      </c>
+      <c r="D93">
+        <v>0.2439898260155725</v>
+      </c>
+      <c r="E93">
+        <v>-0.02881906639834714</v>
+      </c>
+      <c r="F93">
+        <v>-0.05823717867656191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1231425688871636</v>
+        <v>-0.1170706099095259</v>
       </c>
       <c r="C94">
-        <v>0.0309109824685389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02697303828842287</v>
+      </c>
+      <c r="D94">
+        <v>-0.04793269424185406</v>
+      </c>
+      <c r="E94">
+        <v>0.06054053401953308</v>
+      </c>
+      <c r="F94">
+        <v>0.06405169691628139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1243679188430067</v>
+        <v>-0.1270268323697499</v>
       </c>
       <c r="C95">
-        <v>0.01361206535191943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008101347491927799</v>
+      </c>
+      <c r="D95">
+        <v>-0.118633160869356</v>
+      </c>
+      <c r="E95">
+        <v>0.01426516400454044</v>
+      </c>
+      <c r="F95">
+        <v>0.04122217655307533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1771169797332914</v>
+        <v>-0.1575061522748857</v>
       </c>
       <c r="C96">
-        <v>-0.9783705273424872</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9807767294168155</v>
+      </c>
+      <c r="D96">
+        <v>0.05600776596232732</v>
+      </c>
+      <c r="E96">
+        <v>0.06256908447295298</v>
+      </c>
+      <c r="F96">
+        <v>0.0140502734716368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1909614788126692</v>
+        <v>-0.194330882786813</v>
       </c>
       <c r="C97">
-        <v>0.00705598156683702</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002236807682055748</v>
+      </c>
+      <c r="D97">
+        <v>0.01692866771664141</v>
+      </c>
+      <c r="E97">
+        <v>-0.1545128637195465</v>
+      </c>
+      <c r="F97">
+        <v>0.08934992302314189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1908297399684249</v>
+        <v>-0.1979164216521775</v>
       </c>
       <c r="C98">
-        <v>0.01931007307548274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01380068467224022</v>
+      </c>
+      <c r="D98">
+        <v>-0.007042153897328942</v>
+      </c>
+      <c r="E98">
+        <v>-0.1284289637265766</v>
+      </c>
+      <c r="F98">
+        <v>-0.06714307232118705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05611720321835546</v>
+        <v>-0.0556909790447772</v>
       </c>
       <c r="C99">
-        <v>-0.0006698360137126943</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002854037609371226</v>
+      </c>
+      <c r="D99">
+        <v>-0.05904017766772777</v>
+      </c>
+      <c r="E99">
+        <v>0.008640564766647083</v>
+      </c>
+      <c r="F99">
+        <v>0.00594935267914235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.119590226156204</v>
+        <v>-0.1116962855973181</v>
       </c>
       <c r="C100">
-        <v>-0.03354102942628402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04065815794371502</v>
+      </c>
+      <c r="D100">
+        <v>-0.3112774126229512</v>
+      </c>
+      <c r="E100">
+        <v>-0.5229959408686532</v>
+      </c>
+      <c r="F100">
+        <v>-0.6929013006449383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02531220019982009</v>
+        <v>-0.02761622217101106</v>
       </c>
       <c r="C101">
-        <v>0.009990277381957189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.009462242041469872</v>
+      </c>
+      <c r="D101">
+        <v>-0.04101590419651526</v>
+      </c>
+      <c r="E101">
+        <v>-0.007725885946285246</v>
+      </c>
+      <c r="F101">
+        <v>0.02298506543001961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
